--- a/Code/Results/Cases/Case_4_209/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_209/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.01944226634825</v>
+        <v>0.4457773403902934</v>
       </c>
       <c r="C2">
-        <v>0.1366027826448004</v>
+        <v>0.03961205890428232</v>
       </c>
       <c r="D2">
-        <v>0.5547602979903843</v>
+        <v>0.654004891235644</v>
       </c>
       <c r="E2">
-        <v>0.2478003915909639</v>
+        <v>0.2669223542203767</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4624681841753926</v>
+        <v>0.8049703976024176</v>
       </c>
       <c r="H2">
-        <v>0.3710889980957432</v>
+        <v>0.8844547748153957</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1468955528900722</v>
+        <v>0.1390707372402176</v>
       </c>
       <c r="K2">
-        <v>1.059998446411555</v>
+        <v>0.4086094500595436</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7721772818350146</v>
+        <v>1.609173688003291</v>
       </c>
       <c r="O2">
-        <v>1.705064348035478</v>
+        <v>3.397180040785344</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8856340323222298</v>
+        <v>0.4076390570984643</v>
       </c>
       <c r="C3">
-        <v>0.1204968996222675</v>
+        <v>0.03459744759958028</v>
       </c>
       <c r="D3">
-        <v>0.5003237335965309</v>
+        <v>0.6434280814394526</v>
       </c>
       <c r="E3">
-        <v>0.2222259120961496</v>
+        <v>0.2617436079925355</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4451301465613255</v>
+        <v>0.8067435465804209</v>
       </c>
       <c r="H3">
-        <v>0.3691198075985369</v>
+        <v>0.8892914023486611</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1307852704898309</v>
+        <v>0.1356459366700093</v>
       </c>
       <c r="K3">
-        <v>0.9210364564051474</v>
+        <v>0.3681200683085706</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8116539709512982</v>
+        <v>1.626051599796278</v>
       </c>
       <c r="O3">
-        <v>1.663794365384575</v>
+        <v>3.410777893515956</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8037294879484591</v>
+        <v>0.384328612579651</v>
       </c>
       <c r="C4">
-        <v>0.1106009315994214</v>
+        <v>0.03150579825226885</v>
       </c>
       <c r="D4">
-        <v>0.467512279811956</v>
+        <v>0.6372624722856983</v>
       </c>
       <c r="E4">
-        <v>0.2068032328981531</v>
+        <v>0.2587040662743121</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.435448887150244</v>
+        <v>0.8083018231257384</v>
       </c>
       <c r="H4">
-        <v>0.3685011369394076</v>
+        <v>0.8926161774793258</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1210642208016708</v>
+        <v>0.1336204105440046</v>
       </c>
       <c r="K4">
-        <v>0.8358868158555879</v>
+        <v>0.3433127508964731</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8369322168403102</v>
+        <v>1.636944645415465</v>
       </c>
       <c r="O4">
-        <v>1.641724587391295</v>
+        <v>3.420855622252063</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7704039717810645</v>
+        <v>0.3748567659484934</v>
       </c>
       <c r="C5">
-        <v>0.1065652962507215</v>
+        <v>0.03024280873681562</v>
       </c>
       <c r="D5">
-        <v>0.4542846474918179</v>
+        <v>0.6348327193085765</v>
       </c>
       <c r="E5">
-        <v>0.2005835199587054</v>
+        <v>0.2575007389106929</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4317338375754645</v>
+        <v>0.8090548698592741</v>
       </c>
       <c r="H5">
-        <v>0.3683920187512655</v>
+        <v>0.8940604069534217</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1171422274083724</v>
+        <v>0.1328144454321318</v>
       </c>
       <c r="K5">
-        <v>0.8012187760136555</v>
+        <v>0.3332175297676656</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8474885106374113</v>
+        <v>1.641516908130357</v>
       </c>
       <c r="O5">
-        <v>1.633515616563301</v>
+        <v>3.425397112419617</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7648730330349451</v>
+        <v>0.3732856407191605</v>
       </c>
       <c r="C6">
-        <v>0.105894969971132</v>
+        <v>0.03003290394406122</v>
       </c>
       <c r="D6">
-        <v>0.4520965588903039</v>
+        <v>0.6344342651258614</v>
       </c>
       <c r="E6">
-        <v>0.1995545268273844</v>
+        <v>0.2573030614297949</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.431130506481658</v>
+        <v>0.8091870407254049</v>
       </c>
       <c r="H6">
-        <v>0.3683823814205738</v>
+        <v>0.8943056192136751</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1164932644202707</v>
+        <v>0.1326817908148357</v>
       </c>
       <c r="K6">
-        <v>0.7954637020433495</v>
+        <v>0.3315420855525701</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8492566143364226</v>
+        <v>1.642284177399021</v>
       </c>
       <c r="O6">
-        <v>1.632198846986611</v>
+        <v>3.426177482239282</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8032798571365731</v>
+        <v>0.3842007604943944</v>
       </c>
       <c r="C7">
-        <v>0.1105465190972268</v>
+        <v>0.03148877766807345</v>
       </c>
       <c r="D7">
-        <v>0.4673333209908321</v>
+        <v>0.6372293683959356</v>
       </c>
       <c r="E7">
-        <v>0.2067190946697366</v>
+        <v>0.2586876947443884</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4353978687489501</v>
+        <v>0.8083115011030202</v>
       </c>
       <c r="H7">
-        <v>0.3684990933847274</v>
+        <v>0.8926352929662329</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1210111723632252</v>
+        <v>0.133609462235377</v>
       </c>
       <c r="K7">
-        <v>0.8354191605421022</v>
+        <v>0.3431765459491771</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8370735573193322</v>
+        <v>1.637005768991553</v>
       </c>
       <c r="O7">
-        <v>1.641610749793173</v>
+        <v>3.420915110072812</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9732445303205566</v>
+        <v>0.4326054436344862</v>
       </c>
       <c r="C8">
-        <v>0.1310501441948162</v>
+        <v>0.03788568588953467</v>
       </c>
       <c r="D8">
-        <v>0.5358566977373016</v>
+        <v>0.6502898955052387</v>
       </c>
       <c r="E8">
-        <v>0.2389208882355902</v>
+        <v>0.2651076449146572</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.456282245952579</v>
+        <v>0.8054842987844779</v>
       </c>
       <c r="H8">
-        <v>0.3702841012029268</v>
+        <v>0.8860487927834413</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1413031145348285</v>
+        <v>0.137873824839815</v>
       </c>
       <c r="K8">
-        <v>1.012040531715854</v>
+        <v>0.3946379621615677</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.785569322651976</v>
+        <v>1.614883204838486</v>
       </c>
       <c r="O8">
-        <v>1.690132480056633</v>
+        <v>3.401509845013692</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.309184732667489</v>
+        <v>0.5283539917202518</v>
       </c>
       <c r="C9">
-        <v>0.1712636872905762</v>
+        <v>0.0503272690927048</v>
       </c>
       <c r="D9">
-        <v>0.6756141927321266</v>
+        <v>0.6785040599080503</v>
       </c>
       <c r="E9">
-        <v>0.3045467882155393</v>
+        <v>0.2788086304863171</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5054782278061225</v>
+        <v>0.8036684679339743</v>
       </c>
       <c r="H9">
-        <v>0.3787303668045894</v>
+        <v>0.8759470811972818</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1826199471464847</v>
+        <v>0.146849782313673</v>
       </c>
       <c r="K9">
-        <v>1.360388338378499</v>
+        <v>0.4959575139530727</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6931065626621917</v>
+        <v>1.575705082843606</v>
       </c>
       <c r="O9">
-        <v>1.813029015441913</v>
+        <v>3.377171528801171</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.558552174954769</v>
+        <v>0.5991865361275757</v>
       </c>
       <c r="C10">
-        <v>0.2009056250274881</v>
+        <v>0.05940323406045422</v>
       </c>
       <c r="D10">
-        <v>0.7823528372585145</v>
+        <v>0.7008162487536254</v>
       </c>
       <c r="E10">
-        <v>0.3546539286324375</v>
+        <v>0.2895521863037871</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5475185217368619</v>
+        <v>0.8046121460382238</v>
       </c>
       <c r="H10">
-        <v>0.3883367265948294</v>
+        <v>0.8702376075742961</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2141580415983526</v>
+        <v>0.1538194818638772</v>
       </c>
       <c r="K10">
-        <v>1.618471468200113</v>
+        <v>0.5706247427923756</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6308000864499883</v>
+        <v>1.549482023029506</v>
       </c>
       <c r="O10">
-        <v>1.922892176834353</v>
+        <v>3.367654958160983</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.672775963160348</v>
+        <v>0.6315122225988716</v>
       </c>
       <c r="C11">
-        <v>0.2144343117084162</v>
+        <v>0.06351761795792754</v>
       </c>
       <c r="D11">
-        <v>0.8319775765573354</v>
+        <v>0.7113099119124797</v>
       </c>
       <c r="E11">
-        <v>0.3779506827353813</v>
+        <v>0.2945868642447778</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5681312471360656</v>
+        <v>0.8055371886130729</v>
       </c>
       <c r="H11">
-        <v>0.3935372109382342</v>
+        <v>0.8680113285198701</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2288228936098875</v>
+        <v>0.1570718919641791</v>
       </c>
       <c r="K11">
-        <v>1.736572516737283</v>
+        <v>0.6046387818445567</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6037768967566626</v>
+        <v>1.538108208366505</v>
       </c>
       <c r="O11">
-        <v>1.977753351495153</v>
+        <v>3.365143029467276</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.716162241596919</v>
+        <v>0.6437675645760521</v>
       </c>
       <c r="C12">
-        <v>0.2195656657464582</v>
+        <v>0.06507351382190052</v>
       </c>
       <c r="D12">
-        <v>0.8509392808005884</v>
+        <v>0.7153329073998407</v>
       </c>
       <c r="E12">
-        <v>0.3868529295894234</v>
+        <v>0.2965145314945801</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5761693101517409</v>
+        <v>0.8059588376664379</v>
       </c>
       <c r="H12">
-        <v>0.395634158888285</v>
+        <v>0.8672215830888206</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2344272139949624</v>
+        <v>0.1583152684353877</v>
       </c>
       <c r="K12">
-        <v>1.781414375873482</v>
+        <v>0.6175253866161938</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5937428981504409</v>
+        <v>1.533881084910196</v>
       </c>
       <c r="O12">
-        <v>1.999286697852114</v>
+        <v>3.364453171136802</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.706812027838112</v>
+        <v>0.6411275305748063</v>
       </c>
       <c r="C13">
-        <v>0.2184601334288487</v>
+        <v>0.06473851979450274</v>
       </c>
       <c r="D13">
-        <v>0.8468477120182456</v>
+        <v>0.7144642944005</v>
       </c>
       <c r="E13">
-        <v>0.3849319681116441</v>
+        <v>0.2960984342643798</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5744275225500246</v>
+        <v>0.8058648533952066</v>
       </c>
       <c r="H13">
-        <v>0.3951767298687514</v>
+        <v>0.8673892992340484</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2332178633473916</v>
+        <v>0.1580469622567904</v>
       </c>
       <c r="K13">
-        <v>1.771751240204139</v>
+        <v>0.6147497585025121</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5958948906050061</v>
+        <v>1.534787917346793</v>
       </c>
       <c r="O13">
-        <v>1.994614427433248</v>
+        <v>3.364590119977635</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.676342613184488</v>
+        <v>0.6325201936388396</v>
       </c>
       <c r="C14">
-        <v>0.2148562925330566</v>
+        <v>0.06364566559433626</v>
       </c>
       <c r="D14">
-        <v>0.8335340655201264</v>
+        <v>0.7116398995633801</v>
       </c>
       <c r="E14">
-        <v>0.378681419422648</v>
+        <v>0.294745031115518</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5687877740476921</v>
+        <v>0.805570447487014</v>
       </c>
       <c r="H14">
-        <v>0.3937071209356162</v>
+        <v>0.8679452877965588</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.229282909181336</v>
+        <v>0.1571739496886835</v>
       </c>
       <c r="K14">
-        <v>1.740259172107983</v>
+        <v>0.6056988492837263</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6029473483157251</v>
+        <v>1.537758838851849</v>
       </c>
       <c r="O14">
-        <v>1.979509372355182</v>
+        <v>3.365081036228844</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.657697031076879</v>
+        <v>0.627249796717507</v>
       </c>
       <c r="C15">
-        <v>0.2126499818216558</v>
+        <v>0.06297598102074176</v>
       </c>
       <c r="D15">
-        <v>0.825401698323617</v>
+        <v>0.7099162883334316</v>
       </c>
       <c r="E15">
-        <v>0.3748634782049933</v>
+        <v>0.2939187847135258</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5653641094896216</v>
+        <v>0.8053994099142443</v>
       </c>
       <c r="H15">
-        <v>0.3928238189008368</v>
+        <v>0.8682927863702048</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2268794504528842</v>
+        <v>0.1566407353419521</v>
       </c>
       <c r="K15">
-        <v>1.720985536021658</v>
+        <v>0.60015569879792</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6072933953879502</v>
+        <v>1.539589020298434</v>
       </c>
       <c r="O15">
-        <v>1.970357622878822</v>
+        <v>3.365415773948911</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.551104800306945</v>
+        <v>0.5970760106875161</v>
       </c>
       <c r="C16">
-        <v>0.2000225500886188</v>
+        <v>0.05913405502705871</v>
       </c>
       <c r="D16">
-        <v>0.7791326094712474</v>
+        <v>0.7001373667320081</v>
       </c>
       <c r="E16">
-        <v>0.3531422165214124</v>
+        <v>0.2892261197385508</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.546202929069878</v>
+        <v>0.8045616739127865</v>
       </c>
       <c r="H16">
-        <v>0.3880142634039885</v>
+        <v>0.8703905611388194</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2132065049651004</v>
+        <v>0.153608575416925</v>
       </c>
       <c r="K16">
-        <v>1.610768937528775</v>
+        <v>0.5684027498625142</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6325934592148261</v>
+        <v>1.550236505247844</v>
       </c>
       <c r="O16">
-        <v>1.919409870404564</v>
+        <v>3.367855689074474</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.485928332601503</v>
+        <v>0.578591485000203</v>
       </c>
       <c r="C17">
-        <v>0.1922887412378174</v>
+        <v>0.05677343862241457</v>
       </c>
       <c r="D17">
-        <v>0.75103293450411</v>
+        <v>0.6942262435043745</v>
       </c>
       <c r="E17">
-        <v>0.3399511912273141</v>
+        <v>0.2863850345919943</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5348420977096424</v>
+        <v>0.8041747727736492</v>
       </c>
       <c r="H17">
-        <v>0.3852821313970765</v>
+        <v>0.871772461727943</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2049037169418426</v>
+        <v>0.1517694011775035</v>
       </c>
       <c r="K17">
-        <v>1.543346558357342</v>
+        <v>0.5489350867579788</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.64845877504208</v>
+        <v>1.556910629501633</v>
       </c>
       <c r="O17">
-        <v>1.889444791260729</v>
+        <v>3.36981795833421</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.448513231185444</v>
+        <v>0.5679694621100566</v>
       </c>
       <c r="C18">
-        <v>0.1878445141265246</v>
+        <v>0.05541433118008854</v>
       </c>
       <c r="D18">
-        <v>0.7349703084635451</v>
+        <v>0.6908586852394194</v>
       </c>
       <c r="E18">
-        <v>0.3324108744719538</v>
+        <v>0.284764792674288</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5284465635891138</v>
+        <v>0.8039988966946083</v>
       </c>
       <c r="H18">
-        <v>0.3837883273240834</v>
+        <v>0.8726022165791818</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2001577644169004</v>
+        <v>0.1507192624658273</v>
       </c>
       <c r="K18">
-        <v>1.50463142946154</v>
+        <v>0.5377423132054275</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6577077729080036</v>
+        <v>1.560801662390318</v>
       </c>
       <c r="O18">
-        <v>1.872665765208382</v>
+        <v>3.371117645259972</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.435857038570305</v>
+        <v>0.5643747267124013</v>
       </c>
       <c r="C19">
-        <v>0.1863404149854802</v>
+        <v>0.05495393226495082</v>
       </c>
       <c r="D19">
-        <v>0.7295484044147997</v>
+        <v>0.6897240510715505</v>
       </c>
       <c r="E19">
-        <v>0.3298656590948781</v>
+        <v>0.2842185911564243</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5263044633656762</v>
+        <v>0.8039473598277453</v>
       </c>
       <c r="H19">
-        <v>0.3832956458307706</v>
+        <v>0.8728891567571537</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1985557927502271</v>
+        <v>0.1503650273530326</v>
       </c>
       <c r="K19">
-        <v>1.491533657368507</v>
+        <v>0.5339534258203855</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.660860296883234</v>
+        <v>1.562128072075476</v>
       </c>
       <c r="O19">
-        <v>1.867061357828447</v>
+        <v>3.371587072195069</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.492858821635195</v>
+        <v>0.5805581856481581</v>
       </c>
       <c r="C20">
-        <v>0.1931115851119358</v>
+        <v>0.05702486982777089</v>
       </c>
       <c r="D20">
-        <v>0.7540137747014626</v>
+        <v>0.694852144293975</v>
       </c>
       <c r="E20">
-        <v>0.3413504975720798</v>
+        <v>0.2866860372891864</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5360369708629804</v>
+        <v>0.8042111295256973</v>
       </c>
       <c r="H20">
-        <v>0.3855648778007179</v>
+        <v>0.8716217420964512</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2057844629272836</v>
+        <v>0.1519643869931286</v>
       </c>
       <c r="K20">
-        <v>1.550516981732585</v>
+        <v>0.5510069902394434</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6467570189625063</v>
+        <v>1.556194749162461</v>
       </c>
       <c r="O20">
-        <v>1.892587025600591</v>
+        <v>3.369591368952342</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.685288469956333</v>
+        <v>0.6350479936018303</v>
       </c>
       <c r="C21">
-        <v>0.2159145854507756</v>
+        <v>0.06396672180905227</v>
       </c>
       <c r="D21">
-        <v>0.8374398604737792</v>
+        <v>0.7124681567821654</v>
       </c>
       <c r="E21">
-        <v>0.3805151120870747</v>
+        <v>0.2951419849793666</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5704378422087331</v>
+        <v>0.8056549845465355</v>
       </c>
       <c r="H21">
-        <v>0.3941352482989089</v>
+        <v>0.8677805343755978</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.230437270432418</v>
+        <v>0.1574300555922292</v>
       </c>
       <c r="K21">
-        <v>1.74950575074709</v>
+        <v>0.6083571565991122</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6008703903764694</v>
+        <v>1.536884038430549</v>
       </c>
       <c r="O21">
-        <v>1.983925036033781</v>
+        <v>3.364929748798744</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.811832978974763</v>
+        <v>0.6707433446387085</v>
       </c>
       <c r="C22">
-        <v>0.230867265316391</v>
+        <v>0.06849116244715958</v>
       </c>
       <c r="D22">
-        <v>0.8929622685495247</v>
+        <v>0.7242683672116073</v>
       </c>
       <c r="E22">
-        <v>0.4065834650181941</v>
+        <v>0.3007916558517252</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5942853390931049</v>
+        <v>0.8070145721653148</v>
       </c>
       <c r="H22">
-        <v>0.4004846909043493</v>
+        <v>0.8655807227105043</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2468496815406951</v>
+        <v>0.1610707228019237</v>
       </c>
       <c r="K22">
-        <v>1.880263264296758</v>
+        <v>0.6458748145659854</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5720460621038024</v>
+        <v>1.5247290810044</v>
       </c>
       <c r="O22">
-        <v>2.04807053716064</v>
+        <v>3.36340650482029</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.744215617197739</v>
+        <v>0.6516846551118931</v>
       </c>
       <c r="C23">
-        <v>0.2228815134874367</v>
+        <v>0.06607754763186335</v>
       </c>
       <c r="D23">
-        <v>0.8632318767079994</v>
+        <v>0.7179441522688421</v>
       </c>
       <c r="E23">
-        <v>0.3926243158881348</v>
+        <v>0.2977650618535108</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5814261856331342</v>
+        <v>0.8062508539558166</v>
       </c>
       <c r="H23">
-        <v>0.3970245438165421</v>
+        <v>0.8667263963176168</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2380607185559427</v>
+        <v>0.1591213630534583</v>
       </c>
       <c r="K23">
-        <v>1.810404104028777</v>
+        <v>0.6258478412107991</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5873203114938317</v>
+        <v>1.531173778254799</v>
       </c>
       <c r="O23">
-        <v>2.013407957523782</v>
+        <v>3.364080084023101</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.489725375434688</v>
+        <v>0.5796690247369725</v>
       </c>
       <c r="C24">
-        <v>0.1927395711796009</v>
+        <v>0.05691120387331239</v>
       </c>
       <c r="D24">
-        <v>0.7526658507169088</v>
+        <v>0.694569078519379</v>
       </c>
       <c r="E24">
-        <v>0.3407177366525005</v>
+        <v>0.2865499130507203</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5354963466071467</v>
+        <v>0.8041945476152534</v>
       </c>
       <c r="H24">
-        <v>0.3854368091303968</v>
+        <v>0.8716897725354045</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2053861926242746</v>
+        <v>0.1518762113943808</v>
       </c>
       <c r="K24">
-        <v>1.5472750886928</v>
+        <v>0.5500702843576448</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.647525985457424</v>
+        <v>1.556518230489425</v>
       </c>
       <c r="O24">
-        <v>1.8911650293214</v>
+        <v>3.369693275635058</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.217927800542469</v>
+        <v>0.5023647998183947</v>
       </c>
       <c r="C25">
-        <v>0.1603749992839454</v>
+        <v>0.04697272120016294</v>
       </c>
       <c r="D25">
-        <v>0.6371525562723832</v>
+        <v>0.6705931054808332</v>
       </c>
       <c r="E25">
-        <v>0.2864900907824648</v>
+        <v>0.2749831732047596</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4912004381039736</v>
+        <v>0.8037600512547129</v>
       </c>
       <c r="H25">
-        <v>0.3758776176999987</v>
+        <v>0.8783789232575145</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1712543126900385</v>
+        <v>0.144355755982879</v>
       </c>
       <c r="K25">
-        <v>1.265844718115403</v>
+        <v>0.4685065618421902</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7171643882591709</v>
+        <v>1.585853922645285</v>
       </c>
       <c r="O25">
-        <v>1.776547874955639</v>
+        <v>3.382287003045036</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_209/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_209/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4457773403902934</v>
+        <v>1.019442266348364</v>
       </c>
       <c r="C2">
-        <v>0.03961205890428232</v>
+        <v>0.1366027826450278</v>
       </c>
       <c r="D2">
-        <v>0.654004891235644</v>
+        <v>0.5547602979902138</v>
       </c>
       <c r="E2">
-        <v>0.2669223542203767</v>
+        <v>0.2478003915909781</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8049703976024176</v>
+        <v>0.4624681841754068</v>
       </c>
       <c r="H2">
-        <v>0.8844547748153957</v>
+        <v>0.3710889980957148</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1390707372402176</v>
+        <v>0.1468955528901077</v>
       </c>
       <c r="K2">
-        <v>0.4086094500595436</v>
+        <v>1.059998446411498</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.609173688003291</v>
+        <v>0.7721772818350039</v>
       </c>
       <c r="O2">
-        <v>3.397180040785344</v>
+        <v>1.705064348035279</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4076390570984643</v>
+        <v>0.8856340323222298</v>
       </c>
       <c r="C3">
-        <v>0.03459744759958028</v>
+        <v>0.1204968996224096</v>
       </c>
       <c r="D3">
-        <v>0.6434280814394526</v>
+        <v>0.5003237335965025</v>
       </c>
       <c r="E3">
-        <v>0.2617436079925355</v>
+        <v>0.2222259120961425</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8067435465804209</v>
+        <v>0.4451301465613255</v>
       </c>
       <c r="H3">
-        <v>0.8892914023486611</v>
+        <v>0.3691198075986506</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1356459366700093</v>
+        <v>0.1307852704898735</v>
       </c>
       <c r="K3">
-        <v>0.3681200683085706</v>
+        <v>0.9210364564050906</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.626051599796278</v>
+        <v>0.8116539709512902</v>
       </c>
       <c r="O3">
-        <v>3.410777893515956</v>
+        <v>1.66379436538449</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.384328612579651</v>
+        <v>0.8037294879485728</v>
       </c>
       <c r="C4">
-        <v>0.03150579825226885</v>
+        <v>0.110600931599194</v>
       </c>
       <c r="D4">
-        <v>0.6372624722856983</v>
+        <v>0.467512279811956</v>
       </c>
       <c r="E4">
-        <v>0.2587040662743121</v>
+        <v>0.2068032328981744</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.8083018231257384</v>
+        <v>0.4354488871501303</v>
       </c>
       <c r="H4">
-        <v>0.8926161774793258</v>
+        <v>0.3685011369394076</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1336204105440046</v>
+        <v>0.1210642208016139</v>
       </c>
       <c r="K4">
-        <v>0.3433127508964731</v>
+        <v>0.8358868158555595</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.636944645415465</v>
+        <v>0.8369322168403679</v>
       </c>
       <c r="O4">
-        <v>3.420855622252063</v>
+        <v>1.64172458739128</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3748567659484934</v>
+        <v>0.7704039717812066</v>
       </c>
       <c r="C5">
-        <v>0.03024280873681562</v>
+        <v>0.1065652962505794</v>
       </c>
       <c r="D5">
-        <v>0.6348327193085765</v>
+        <v>0.4542846474917894</v>
       </c>
       <c r="E5">
-        <v>0.2575007389106929</v>
+        <v>0.2005835199587267</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8090548698592741</v>
+        <v>0.4317338375755213</v>
       </c>
       <c r="H5">
-        <v>0.8940604069534217</v>
+        <v>0.3683920187512655</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1328144454321318</v>
+        <v>0.1171422274082445</v>
       </c>
       <c r="K5">
-        <v>0.3332175297676656</v>
+        <v>0.8012187760136555</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.641516908130357</v>
+        <v>0.8474885106374077</v>
       </c>
       <c r="O5">
-        <v>3.425397112419617</v>
+        <v>1.633515616563315</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3732856407191605</v>
+        <v>0.7648730330349736</v>
       </c>
       <c r="C6">
-        <v>0.03003290394406122</v>
+        <v>0.1058949699711604</v>
       </c>
       <c r="D6">
-        <v>0.6344342651258614</v>
+        <v>0.4520965588905881</v>
       </c>
       <c r="E6">
-        <v>0.2573030614297949</v>
+        <v>0.1995545268273702</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8091870407254049</v>
+        <v>0.4311305064816864</v>
       </c>
       <c r="H6">
-        <v>0.8943056192136751</v>
+        <v>0.3683823814205738</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1326817908148357</v>
+        <v>0.1164932644202779</v>
       </c>
       <c r="K6">
-        <v>0.3315420855525701</v>
+        <v>0.7954637020432642</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.642284177399021</v>
+        <v>0.8492566143364328</v>
       </c>
       <c r="O6">
-        <v>3.426177482239282</v>
+        <v>1.632198846986526</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3842007604943944</v>
+        <v>0.8032798571365447</v>
       </c>
       <c r="C7">
-        <v>0.03148877766807345</v>
+        <v>0.1105465190971984</v>
       </c>
       <c r="D7">
-        <v>0.6372293683959356</v>
+        <v>0.4673333209908606</v>
       </c>
       <c r="E7">
-        <v>0.2586876947443884</v>
+        <v>0.2067190946697508</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.8083115011030202</v>
+        <v>0.435397868748808</v>
       </c>
       <c r="H7">
-        <v>0.8926352929662329</v>
+        <v>0.3684990933846137</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.133609462235377</v>
+        <v>0.1210111723632323</v>
       </c>
       <c r="K7">
-        <v>0.3431765459491771</v>
+        <v>0.8354191605421022</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.637005768991553</v>
+        <v>0.8370735573193215</v>
       </c>
       <c r="O7">
-        <v>3.420915110072812</v>
+        <v>1.641610749793188</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4326054436344862</v>
+        <v>0.9732445303204713</v>
       </c>
       <c r="C8">
-        <v>0.03788568588953467</v>
+        <v>0.1310501441949867</v>
       </c>
       <c r="D8">
-        <v>0.6502898955052387</v>
+        <v>0.5358566977372448</v>
       </c>
       <c r="E8">
-        <v>0.2651076449146572</v>
+        <v>0.2389208882355689</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8054842987844779</v>
+        <v>0.4562822459525222</v>
       </c>
       <c r="H8">
-        <v>0.8860487927834413</v>
+        <v>0.3702841012030262</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.137873824839815</v>
+        <v>0.1413031145348</v>
       </c>
       <c r="K8">
-        <v>0.3946379621615677</v>
+        <v>1.01204053171594</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.614883204838486</v>
+        <v>0.7855693226519671</v>
       </c>
       <c r="O8">
-        <v>3.401509845013692</v>
+        <v>1.690132480056633</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5283539917202518</v>
+        <v>1.309184732667404</v>
       </c>
       <c r="C9">
-        <v>0.0503272690927048</v>
+        <v>0.1712636872897804</v>
       </c>
       <c r="D9">
-        <v>0.6785040599080503</v>
+        <v>0.6756141927320414</v>
       </c>
       <c r="E9">
-        <v>0.2788086304863171</v>
+        <v>0.3045467882155393</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.8036684679339743</v>
+        <v>0.5054782278061225</v>
       </c>
       <c r="H9">
-        <v>0.8759470811972818</v>
+        <v>0.3787303668045894</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.146849782313673</v>
+        <v>0.1826199471464705</v>
       </c>
       <c r="K9">
-        <v>0.4959575139530727</v>
+        <v>1.360388338378499</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.575705082843606</v>
+        <v>0.6931065626621384</v>
       </c>
       <c r="O9">
-        <v>3.377171528801171</v>
+        <v>1.813029015441913</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5991865361275757</v>
+        <v>1.558552174954741</v>
       </c>
       <c r="C10">
-        <v>0.05940323406045422</v>
+        <v>0.2009056250274881</v>
       </c>
       <c r="D10">
-        <v>0.7008162487536254</v>
+        <v>0.782352837258685</v>
       </c>
       <c r="E10">
-        <v>0.2895521863037871</v>
+        <v>0.3546539286324304</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.8046121460382238</v>
+        <v>0.5475185217369756</v>
       </c>
       <c r="H10">
-        <v>0.8702376075742961</v>
+        <v>0.38833672659473</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1538194818638772</v>
+        <v>0.2141580415983952</v>
       </c>
       <c r="K10">
-        <v>0.5706247427923756</v>
+        <v>1.618471468199971</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.549482023029506</v>
+        <v>0.6308000864499776</v>
       </c>
       <c r="O10">
-        <v>3.367654958160983</v>
+        <v>1.922892176834239</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6315122225988716</v>
+        <v>1.672775963160433</v>
       </c>
       <c r="C11">
-        <v>0.06351761795792754</v>
+        <v>0.2144343117085441</v>
       </c>
       <c r="D11">
-        <v>0.7113099119124797</v>
+        <v>0.8319775765573354</v>
       </c>
       <c r="E11">
-        <v>0.2945868642447778</v>
+        <v>0.3779506827353956</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.8055371886130729</v>
+        <v>0.5681312471360798</v>
       </c>
       <c r="H11">
-        <v>0.8680113285198701</v>
+        <v>0.3935372109382342</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1570718919641791</v>
+        <v>0.2288228936098307</v>
       </c>
       <c r="K11">
-        <v>0.6046387818445567</v>
+        <v>1.736572516737368</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.538108208366505</v>
+        <v>0.6037768967565968</v>
       </c>
       <c r="O11">
-        <v>3.365143029467276</v>
+        <v>1.977753351495124</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6437675645760521</v>
+        <v>1.716162241596891</v>
       </c>
       <c r="C12">
-        <v>0.06507351382190052</v>
+        <v>0.2195656657462308</v>
       </c>
       <c r="D12">
-        <v>0.7153329073998407</v>
+        <v>0.8509392808005884</v>
       </c>
       <c r="E12">
-        <v>0.2965145314945801</v>
+        <v>0.3868529295894305</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8059588376664379</v>
+        <v>0.5761693101517409</v>
       </c>
       <c r="H12">
-        <v>0.8672215830888206</v>
+        <v>0.3956341588881713</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1583152684353877</v>
+        <v>0.2344272139949766</v>
       </c>
       <c r="K12">
-        <v>0.6175253866161938</v>
+        <v>1.781414375873538</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.533881084910196</v>
+        <v>0.5937428981503832</v>
       </c>
       <c r="O12">
-        <v>3.364453171136802</v>
+        <v>1.99928669785217</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6411275305748063</v>
+        <v>1.706812027837969</v>
       </c>
       <c r="C13">
-        <v>0.06473851979450274</v>
+        <v>0.2184601334290051</v>
       </c>
       <c r="D13">
-        <v>0.7144642944005</v>
+        <v>0.8468477120181888</v>
       </c>
       <c r="E13">
-        <v>0.2960984342643798</v>
+        <v>0.3849319681116654</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8058648533952066</v>
+        <v>0.5744275225500104</v>
       </c>
       <c r="H13">
-        <v>0.8673892992340484</v>
+        <v>0.3951767298687372</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1580469622567904</v>
+        <v>0.2332178633473632</v>
       </c>
       <c r="K13">
-        <v>0.6147497585025121</v>
+        <v>1.771751240204111</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.534787917346793</v>
+        <v>0.5958948906050532</v>
       </c>
       <c r="O13">
-        <v>3.364590119977635</v>
+        <v>1.994614427433248</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6325201936388396</v>
+        <v>1.676342613184516</v>
       </c>
       <c r="C14">
-        <v>0.06364566559433626</v>
+        <v>0.2148562925328292</v>
       </c>
       <c r="D14">
-        <v>0.7116398995633801</v>
+        <v>0.8335340655201549</v>
       </c>
       <c r="E14">
-        <v>0.294745031115518</v>
+        <v>0.378681419422648</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.805570447487014</v>
+        <v>0.5687877740476068</v>
       </c>
       <c r="H14">
-        <v>0.8679452877965588</v>
+        <v>0.3937071209356162</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1571739496886835</v>
+        <v>0.2292829091813218</v>
       </c>
       <c r="K14">
-        <v>0.6056988492837263</v>
+        <v>1.740259172107955</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.537758838851849</v>
+        <v>0.6029473483157135</v>
       </c>
       <c r="O14">
-        <v>3.365081036228844</v>
+        <v>1.979509372355153</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.627249796717507</v>
+        <v>1.657697031076879</v>
       </c>
       <c r="C15">
-        <v>0.06297598102074176</v>
+        <v>0.2126499818214285</v>
       </c>
       <c r="D15">
-        <v>0.7099162883334316</v>
+        <v>0.8254016983237591</v>
       </c>
       <c r="E15">
-        <v>0.2939187847135258</v>
+        <v>0.3748634782050146</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.8053994099142443</v>
+        <v>0.5653641094896358</v>
       </c>
       <c r="H15">
-        <v>0.8682927863702048</v>
+        <v>0.3928238189008368</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1566407353419521</v>
+        <v>0.2268794504529978</v>
       </c>
       <c r="K15">
-        <v>0.60015569879792</v>
+        <v>1.720985536021743</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.539589020298434</v>
+        <v>0.6072933953879529</v>
       </c>
       <c r="O15">
-        <v>3.365415773948911</v>
+        <v>1.970357622878907</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5970760106875161</v>
+        <v>1.551104800306973</v>
       </c>
       <c r="C16">
-        <v>0.05913405502705871</v>
+        <v>0.2000225500883914</v>
       </c>
       <c r="D16">
-        <v>0.7001373667320081</v>
+        <v>0.779132609471219</v>
       </c>
       <c r="E16">
-        <v>0.2892261197385508</v>
+        <v>0.3531422165213911</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.8045616739127865</v>
+        <v>0.546202929069878</v>
       </c>
       <c r="H16">
-        <v>0.8703905611388194</v>
+        <v>0.3880142634039743</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.153608575416925</v>
+        <v>0.2132065049650436</v>
       </c>
       <c r="K16">
-        <v>0.5684027498625142</v>
+        <v>1.610768937528775</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.550236505247844</v>
+        <v>0.6325934592148217</v>
       </c>
       <c r="O16">
-        <v>3.367855689074474</v>
+        <v>1.919409870404593</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.578591485000203</v>
+        <v>1.485928332601645</v>
       </c>
       <c r="C17">
-        <v>0.05677343862241457</v>
+        <v>0.1922887412378316</v>
       </c>
       <c r="D17">
-        <v>0.6942262435043745</v>
+        <v>0.7510329345039963</v>
       </c>
       <c r="E17">
-        <v>0.2863850345919943</v>
+        <v>0.3399511912272999</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.8041747727736492</v>
+        <v>0.5348420977095714</v>
       </c>
       <c r="H17">
-        <v>0.871772461727943</v>
+        <v>0.3852821313970765</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1517694011775035</v>
+        <v>0.2049037169418426</v>
       </c>
       <c r="K17">
-        <v>0.5489350867579788</v>
+        <v>1.543346558357456</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.556910629501633</v>
+        <v>0.6484587750420703</v>
       </c>
       <c r="O17">
-        <v>3.36981795833421</v>
+        <v>1.889444791260786</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5679694621100566</v>
+        <v>1.448513231185302</v>
       </c>
       <c r="C18">
-        <v>0.05541433118008854</v>
+        <v>0.1878445141266241</v>
       </c>
       <c r="D18">
-        <v>0.6908586852394194</v>
+        <v>0.7349703084634314</v>
       </c>
       <c r="E18">
-        <v>0.284764792674288</v>
+        <v>0.3324108744719538</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.8039988966946083</v>
+        <v>0.5284465635890143</v>
       </c>
       <c r="H18">
-        <v>0.8726022165791818</v>
+        <v>0.383788327324055</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1507192624658273</v>
+        <v>0.2001577644168577</v>
       </c>
       <c r="K18">
-        <v>0.5377423132054275</v>
+        <v>1.504631429461654</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.560801662390318</v>
+        <v>0.6577077729079388</v>
       </c>
       <c r="O18">
-        <v>3.371117645259972</v>
+        <v>1.87266576520841</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5643747267124013</v>
+        <v>1.435857038570163</v>
       </c>
       <c r="C19">
-        <v>0.05495393226495082</v>
+        <v>0.1863404149857217</v>
       </c>
       <c r="D19">
-        <v>0.6897240510715505</v>
+        <v>0.729548404414686</v>
       </c>
       <c r="E19">
-        <v>0.2842185911564243</v>
+        <v>0.329865659094871</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.8039473598277453</v>
+        <v>0.5263044633656193</v>
       </c>
       <c r="H19">
-        <v>0.8728891567571537</v>
+        <v>0.3832956458307706</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1503650273530326</v>
+        <v>0.1985557927502555</v>
       </c>
       <c r="K19">
-        <v>0.5339534258203855</v>
+        <v>1.491533657368421</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.562128072075476</v>
+        <v>0.6608602968832269</v>
       </c>
       <c r="O19">
-        <v>3.371587072195069</v>
+        <v>1.867061357828334</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5805581856481581</v>
+        <v>1.492858821635195</v>
       </c>
       <c r="C20">
-        <v>0.05702486982777089</v>
+        <v>0.1931115851121774</v>
       </c>
       <c r="D20">
-        <v>0.694852144293975</v>
+        <v>0.7540137747014626</v>
       </c>
       <c r="E20">
-        <v>0.2866860372891864</v>
+        <v>0.3413504975721011</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.8042111295256973</v>
+        <v>0.5360369708630088</v>
       </c>
       <c r="H20">
-        <v>0.8716217420964512</v>
+        <v>0.3855648778007179</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1519643869931286</v>
+        <v>0.2057844629273404</v>
       </c>
       <c r="K20">
-        <v>0.5510069902394434</v>
+        <v>1.550516981732528</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.556194749162461</v>
+        <v>0.6467570189625729</v>
       </c>
       <c r="O20">
-        <v>3.369591368952342</v>
+        <v>1.892587025600562</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6350479936018303</v>
+        <v>1.685288469956333</v>
       </c>
       <c r="C21">
-        <v>0.06396672180905227</v>
+        <v>0.2159145854508182</v>
       </c>
       <c r="D21">
-        <v>0.7124681567821654</v>
+        <v>0.837439860473836</v>
       </c>
       <c r="E21">
-        <v>0.2951419849793666</v>
+        <v>0.380515112087032</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.8056549845465355</v>
+        <v>0.5704378422087473</v>
       </c>
       <c r="H21">
-        <v>0.8677805343755978</v>
+        <v>0.3941352482989231</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1574300555922292</v>
+        <v>0.230437270432418</v>
       </c>
       <c r="K21">
-        <v>0.6083571565991122</v>
+        <v>1.74950575074709</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.536884038430549</v>
+        <v>0.6008703903764765</v>
       </c>
       <c r="O21">
-        <v>3.364929748798744</v>
+        <v>1.983925036033668</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6707433446387085</v>
+        <v>1.811832978974849</v>
       </c>
       <c r="C22">
-        <v>0.06849116244715958</v>
+        <v>0.2308672653168173</v>
       </c>
       <c r="D22">
-        <v>0.7242683672116073</v>
+        <v>0.8929622685493825</v>
       </c>
       <c r="E22">
-        <v>0.3007916558517252</v>
+        <v>0.4065834650181586</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.8070145721653148</v>
+        <v>0.5942853390930765</v>
       </c>
       <c r="H22">
-        <v>0.8655807227105043</v>
+        <v>0.400484690904463</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1610707228019237</v>
+        <v>0.246849681540823</v>
       </c>
       <c r="K22">
-        <v>0.6458748145659854</v>
+        <v>1.880263264296758</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.5247290810044</v>
+        <v>0.5720460621037811</v>
       </c>
       <c r="O22">
-        <v>3.36340650482029</v>
+        <v>2.048070537160669</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6516846551118931</v>
+        <v>1.744215617197682</v>
       </c>
       <c r="C23">
-        <v>0.06607754763186335</v>
+        <v>0.2228815134874225</v>
       </c>
       <c r="D23">
-        <v>0.7179441522688421</v>
+        <v>0.8632318767077436</v>
       </c>
       <c r="E23">
-        <v>0.2977650618535108</v>
+        <v>0.3926243158881348</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.8062508539558166</v>
+        <v>0.5814261856331058</v>
       </c>
       <c r="H23">
-        <v>0.8667263963176168</v>
+        <v>0.3970245438164284</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1591213630534583</v>
+        <v>0.2380607185559853</v>
       </c>
       <c r="K23">
-        <v>0.6258478412107991</v>
+        <v>1.810404104028862</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.531173778254799</v>
+        <v>0.5873203114938947</v>
       </c>
       <c r="O23">
-        <v>3.364080084023101</v>
+        <v>2.013407957523839</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5796690247369725</v>
+        <v>1.489725375434659</v>
       </c>
       <c r="C24">
-        <v>0.05691120387331239</v>
+        <v>0.1927395711794304</v>
       </c>
       <c r="D24">
-        <v>0.694569078519379</v>
+        <v>0.7526658507169941</v>
       </c>
       <c r="E24">
-        <v>0.2865499130507203</v>
+        <v>0.3407177366525005</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.8041945476152534</v>
+        <v>0.5354963466071609</v>
       </c>
       <c r="H24">
-        <v>0.8716897725354045</v>
+        <v>0.3854368091303968</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1518762113943808</v>
+        <v>0.2053861926243599</v>
       </c>
       <c r="K24">
-        <v>0.5500702843576448</v>
+        <v>1.547275088692743</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.556518230489425</v>
+        <v>0.6475259854574276</v>
       </c>
       <c r="O24">
-        <v>3.369693275635058</v>
+        <v>1.891165029321428</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5023647998183947</v>
+        <v>1.217927800542469</v>
       </c>
       <c r="C25">
-        <v>0.04697272120016294</v>
+        <v>0.1603749992840875</v>
       </c>
       <c r="D25">
-        <v>0.6705931054808332</v>
+        <v>0.6371525562724685</v>
       </c>
       <c r="E25">
-        <v>0.2749831732047596</v>
+        <v>0.2864900907824648</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.8037600512547129</v>
+        <v>0.4912004381039168</v>
       </c>
       <c r="H25">
-        <v>0.8783789232575145</v>
+        <v>0.3758776177000129</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.144355755982879</v>
+        <v>0.1712543126900172</v>
       </c>
       <c r="K25">
-        <v>0.4685065618421902</v>
+        <v>1.26584471811546</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.585853922645285</v>
+        <v>0.7171643882591932</v>
       </c>
       <c r="O25">
-        <v>3.382287003045036</v>
+        <v>1.776547874955668</v>
       </c>
     </row>
   </sheetData>
